--- a/data/trans_orig/P2A_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P2A_R-Estudios-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>706486</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>675423</v>
+        <v>676251</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>736545</v>
+        <v>735827</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.6847634005210871</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.6546558519243634</v>
+        <v>0.6554576406372133</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.7138978656284822</v>
+        <v>0.713201671727433</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1041</v>
@@ -765,19 +765,19 @@
         <v>1061925</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1031142</v>
+        <v>1032237</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>1090356</v>
+        <v>1087892</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.8074782001120596</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.7840709417270885</v>
+        <v>0.7849035120059551</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.8290967245847377</v>
+        <v>0.8272230123934374</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1766</v>
@@ -786,19 +786,19 @@
         <v>1768410</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1720803</v>
+        <v>1724611</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1807268</v>
+        <v>1809077</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.7535299523327361</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.7332440131475514</v>
+        <v>0.7348665686466104</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.7700873070430262</v>
+        <v>0.7708582662335205</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>325237</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>295178</v>
+        <v>295896</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>356300</v>
+        <v>355472</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3152365994789129</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2861021343715176</v>
+        <v>0.2867983282725673</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3453441480756364</v>
+        <v>0.3445423593627872</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>250</v>
@@ -836,19 +836,19 @@
         <v>253188</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>224757</v>
+        <v>227221</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>283971</v>
+        <v>282876</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1925217998879404</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1709032754152623</v>
+        <v>0.1727769876065626</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2159290582729115</v>
+        <v>0.2150964879940449</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>563</v>
@@ -857,19 +857,19 @@
         <v>578425</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>539567</v>
+        <v>537758</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>626032</v>
+        <v>622224</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2464700476672639</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2299126929569738</v>
+        <v>0.2291417337664794</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2667559868524486</v>
+        <v>0.2651334313533897</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>652847</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>611922</v>
+        <v>612186</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>690584</v>
+        <v>695593</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3855214373826406</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3613544747706378</v>
+        <v>0.3615098633247161</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4078060825502988</v>
+        <v>0.4107636546276657</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>831</v>
@@ -982,19 +982,19 @@
         <v>845391</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>806321</v>
+        <v>805350</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>883585</v>
+        <v>886582</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.5324715458827159</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.5078636084398741</v>
+        <v>0.5072519747652808</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.5565281223681605</v>
+        <v>0.558416149086487</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1470</v>
@@ -1003,19 +1003,19 @@
         <v>1498238</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1441669</v>
+        <v>1442650</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1556309</v>
+        <v>1563082</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.4566286119789587</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.439387714589092</v>
+        <v>0.439686732652181</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4743273237672763</v>
+        <v>0.4763917954235135</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>1040566</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1002829</v>
+        <v>997820</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1081491</v>
+        <v>1081227</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6144785626173594</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5921939174497012</v>
+        <v>0.5892363453723344</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6386455252293622</v>
+        <v>0.6384901366752839</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>723</v>
@@ -1053,19 +1053,19 @@
         <v>742282</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>704088</v>
+        <v>701091</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>781352</v>
+        <v>782323</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.4675284541172841</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.4434718776318394</v>
+        <v>0.4415838509135131</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.4921363915601259</v>
+        <v>0.4927480252347193</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1733</v>
@@ -1074,19 +1074,19 @@
         <v>1782848</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1724777</v>
+        <v>1718004</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1839417</v>
+        <v>1838436</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.5433713880210413</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.5256726762327235</v>
+        <v>0.5236082045764865</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.5606122854109078</v>
+        <v>0.5603132673478189</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>218331</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>194861</v>
+        <v>194839</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>240615</v>
+        <v>241281</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3959513955331148</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3533887574337417</v>
+        <v>0.3533480513304676</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4363643059403797</v>
+        <v>0.4375717123872728</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>236</v>
@@ -1199,19 +1199,19 @@
         <v>249730</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>227768</v>
+        <v>227178</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>271517</v>
+        <v>273911</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.524188513997122</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4780903828980663</v>
+        <v>0.4768526670720156</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5699197752997738</v>
+        <v>0.5749450245547408</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>446</v>
@@ -1220,19 +1220,19 @@
         <v>468060</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>436153</v>
+        <v>439403</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>499849</v>
+        <v>501183</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.4553914540152923</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4243472640650378</v>
+        <v>0.4275098263819065</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4863193638904683</v>
+        <v>0.4876171197274024</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>333077</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>310793</v>
+        <v>310127</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>356547</v>
+        <v>356569</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.6040486044668851</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.56363569405962</v>
+        <v>0.5624282876127273</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.6466112425662582</v>
+        <v>0.6466519486695324</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>216</v>
@@ -1270,19 +1270,19 @@
         <v>226682</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>204895</v>
+        <v>202501</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>248644</v>
+        <v>249234</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.475811486002878</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.4300802247002263</v>
+        <v>0.4250549754452592</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.5219096171019337</v>
+        <v>0.5231473329279848</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>533</v>
@@ -1291,19 +1291,19 @@
         <v>559760</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>527971</v>
+        <v>526637</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>591667</v>
+        <v>588417</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.5446085459847076</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.5136806361095317</v>
+        <v>0.5123828802725975</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.5756527359349622</v>
+        <v>0.5724901736180935</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>1577663</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1516624</v>
+        <v>1523394</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>1631927</v>
+        <v>1641634</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4815024443660664</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4628732124690057</v>
+        <v>0.4649392775666743</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4980636854765476</v>
+        <v>0.5010263420372424</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>2108</v>
@@ -1416,19 +1416,19 @@
         <v>2157045</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>2095624</v>
+        <v>2104348</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>2205612</v>
+        <v>2210545</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.6383305878113095</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.6201545164417686</v>
+        <v>0.6227361707410726</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.6527030235810997</v>
+        <v>0.654162740395743</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>3682</v>
@@ -1437,19 +1437,19 @@
         <v>3734709</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>3650523</v>
+        <v>3660070</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>3814800</v>
+        <v>3818160</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.5611259257641759</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.5484772876512933</v>
+        <v>0.5499117436912321</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.5731592627590186</v>
+        <v>0.5736641993934636</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>1698880</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1644616</v>
+        <v>1634909</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1759919</v>
+        <v>1753149</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.5184975556339336</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5019363145234522</v>
+        <v>0.4989736579627577</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.537126787530994</v>
+        <v>0.5350607224333257</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1189</v>
@@ -1487,19 +1487,19 @@
         <v>1222152</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1173585</v>
+        <v>1168652</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1283573</v>
+        <v>1274849</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3616694121886906</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3472969764189004</v>
+        <v>0.345837259604257</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3798454835582315</v>
+        <v>0.3772638292589272</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2829</v>
@@ -1508,19 +1508,19 @@
         <v>2921032</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>2840941</v>
+        <v>2837581</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>3005218</v>
+        <v>2995671</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4388740742358242</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4268407372409814</v>
+        <v>0.4263358006065365</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4515227123487064</v>
+        <v>0.450088256308768</v>
       </c>
     </row>
     <row r="15">
@@ -1851,19 +1851,19 @@
         <v>749184</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>722139</v>
+        <v>721037</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>773297</v>
+        <v>775455</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.7686749125283915</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.7409264013590084</v>
+        <v>0.7397955519845164</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.793415389009941</v>
+        <v>0.7956295075887346</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1090</v>
@@ -1872,19 +1872,19 @@
         <v>1166980</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1140691</v>
+        <v>1139141</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>1190767</v>
+        <v>1192431</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.8723149927415798</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.8526639095564522</v>
+        <v>0.8515054299591888</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.8900952846088813</v>
+        <v>0.8913394293038036</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1781</v>
@@ -1893,19 +1893,19 @@
         <v>1916164</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1877412</v>
+        <v>1876652</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1954019</v>
+        <v>1950182</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.8286329516317074</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.8118749778805175</v>
+        <v>0.8115464560748932</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.8450030027082778</v>
+        <v>0.843343722260653</v>
       </c>
     </row>
     <row r="5">
@@ -1922,19 +1922,19 @@
         <v>225459</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>201346</v>
+        <v>199188</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>252504</v>
+        <v>253606</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2313250874716085</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2065846109900591</v>
+        <v>0.2043704924112653</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2590735986409916</v>
+        <v>0.2602044480154836</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>157</v>
@@ -1943,19 +1943,19 @@
         <v>170817</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>147030</v>
+        <v>145366</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>197106</v>
+        <v>198656</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1276850072584202</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1099047153911183</v>
+        <v>0.1086605706961964</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1473360904435474</v>
+        <v>0.1484945700408112</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>374</v>
@@ -1964,19 +1964,19 @@
         <v>396276</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>358421</v>
+        <v>362258</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>435028</v>
+        <v>435788</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1713670483682927</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1549969972917226</v>
+        <v>0.156656277739347</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1881250221194827</v>
+        <v>0.1884535439251068</v>
       </c>
     </row>
     <row r="6">
@@ -2068,19 +2068,19 @@
         <v>924388</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>882379</v>
+        <v>880146</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>972791</v>
+        <v>970189</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.4706764831959422</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.4492860949261301</v>
+        <v>0.4481493926314054</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.495321701201004</v>
+        <v>0.493997296308315</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>961</v>
@@ -2089,19 +2089,19 @@
         <v>1043043</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1003340</v>
+        <v>997444</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>1086016</v>
+        <v>1082983</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.5933789500397391</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.5707920702645464</v>
+        <v>0.5674379254090224</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.6178257483291043</v>
+        <v>0.6161002025676958</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1831</v>
@@ -2110,19 +2110,19 @@
         <v>1967432</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1904203</v>
+        <v>1905349</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>2030864</v>
+        <v>2031105</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.5286293653604921</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.5116403605474437</v>
+        <v>0.5119483511904931</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.5456730826698249</v>
+        <v>0.5457377123521657</v>
       </c>
     </row>
     <row r="8">
@@ -2139,19 +2139,19 @@
         <v>1039569</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>991166</v>
+        <v>993768</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1081578</v>
+        <v>1083811</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.5293235168040578</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5046782987989961</v>
+        <v>0.5060027036916847</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.5507139050738695</v>
+        <v>0.5518506073685945</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>674</v>
@@ -2160,19 +2160,19 @@
         <v>714760</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>671787</v>
+        <v>674820</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>754463</v>
+        <v>760359</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.4066210499602609</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.3821742516708957</v>
+        <v>0.3838997974323041</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.4292079297354537</v>
+        <v>0.4325620745909776</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1660</v>
@@ -2181,19 +2181,19 @@
         <v>1754328</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1690896</v>
+        <v>1690655</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1817557</v>
+        <v>1816411</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.4713706346395079</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.454326917330175</v>
+        <v>0.4542622876478344</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.4883596394525564</v>
+        <v>0.488051648809507</v>
       </c>
     </row>
     <row r="9">
@@ -2285,19 +2285,19 @@
         <v>229392</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>206845</v>
+        <v>205812</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>252846</v>
+        <v>251463</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.476726634788364</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.4298684448975046</v>
+        <v>0.4277221552336771</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.5254703577846461</v>
+        <v>0.5225944376550234</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>219</v>
@@ -2306,19 +2306,19 @@
         <v>248690</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>226626</v>
+        <v>225894</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>271449</v>
+        <v>270991</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.5422436723879971</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4941357311366408</v>
+        <v>0.4925406049396479</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5918687486456982</v>
+        <v>0.5908700835781</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>428</v>
@@ -2327,19 +2327,19 @@
         <v>478082</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>443436</v>
+        <v>444919</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>506547</v>
+        <v>510411</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.5086991286676009</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4718341107245963</v>
+        <v>0.4734124783668492</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.5389871921264749</v>
+        <v>0.5430986353765446</v>
       </c>
     </row>
     <row r="11">
@@ -2356,19 +2356,19 @@
         <v>251789</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>228335</v>
+        <v>229718</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>274336</v>
+        <v>275369</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.523273365211636</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.4745296422153539</v>
+        <v>0.4774055623449765</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.5701315551024952</v>
+        <v>0.5722778447663229</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>193</v>
@@ -2377,19 +2377,19 @@
         <v>209941</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>187182</v>
+        <v>187640</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>232005</v>
+        <v>232737</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.4577563276120029</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.4081312513543018</v>
+        <v>0.4091299164218999</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.5058642688633591</v>
+        <v>0.5074593950603521</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>422</v>
@@ -2398,19 +2398,19 @@
         <v>461731</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>433266</v>
+        <v>429402</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>496377</v>
+        <v>494894</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.4913008713323991</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.461012807873525</v>
+        <v>0.4569013646234555</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.5281658892754036</v>
+        <v>0.5265875216331509</v>
       </c>
     </row>
     <row r="12">
@@ -2502,19 +2502,19 @@
         <v>1902964</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1843840</v>
+        <v>1845662</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>1960063</v>
+        <v>1964551</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.5564577755904799</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.5391687333252978</v>
+        <v>0.5397015095457658</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.5731542317898169</v>
+        <v>0.5744666552158446</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>2270</v>
@@ -2523,19 +2523,19 @@
         <v>2458713</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>2407427</v>
+        <v>2401205</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>2518214</v>
+        <v>2517753</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.6917708430907072</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.6773413081741791</v>
+        <v>0.6755906581709032</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.7085117360439679</v>
+        <v>0.7083821744467236</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>4040</v>
@@ -2544,19 +2544,19 @@
         <v>4361677</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>4277616</v>
+        <v>4283502</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>4446953</v>
+        <v>4450438</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.6254186253036135</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.6133652211389504</v>
+        <v>0.6142091480522799</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.6376462866790206</v>
+        <v>0.6381460623734703</v>
       </c>
     </row>
     <row r="14">
@@ -2573,19 +2573,19 @@
         <v>1516818</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1459719</v>
+        <v>1455231</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1575942</v>
+        <v>1574120</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.4435422244095201</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4268457682101831</v>
+        <v>0.4255333447841555</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4608312666747024</v>
+        <v>0.4602984904542343</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1024</v>
@@ -2594,19 +2594,19 @@
         <v>1095517</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1036016</v>
+        <v>1036477</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1146803</v>
+        <v>1153025</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3082291569092928</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2914882639560324</v>
+        <v>0.2916178255532766</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3226586918258209</v>
+        <v>0.3244093418290969</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2456</v>
@@ -2615,19 +2615,19 @@
         <v>2612335</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>2527059</v>
+        <v>2523574</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>2696396</v>
+        <v>2690510</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.3745813746963865</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3623537133209794</v>
+        <v>0.3618539376265297</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3866347788610495</v>
+        <v>0.3857908519477201</v>
       </c>
     </row>
     <row r="15">
@@ -2958,19 +2958,19 @@
         <v>551564</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>527469</v>
+        <v>527633</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>575487</v>
+        <v>574950</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.7311811428128987</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.6992392457885848</v>
+        <v>0.6994569587722496</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.7628948582699385</v>
+        <v>0.7621820945490461</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>756</v>
@@ -2979,19 +2979,19 @@
         <v>856467</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>830284</v>
+        <v>835517</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>875693</v>
+        <v>877298</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.8610650810585769</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.8347418823694671</v>
+        <v>0.8400029236094444</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.8803942302153364</v>
+        <v>0.8820083200319968</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1322</v>
@@ -3000,19 +3000,19 @@
         <v>1408031</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1376355</v>
+        <v>1375195</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1440650</v>
+        <v>1439012</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.8050461325505045</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.7869353608473422</v>
+        <v>0.7862719912326847</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.8236958156912791</v>
+        <v>0.8227592849147942</v>
       </c>
     </row>
     <row r="5">
@@ -3029,19 +3029,19 @@
         <v>202783</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>178860</v>
+        <v>179397</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>226878</v>
+        <v>226714</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2688188571871013</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2371051417300616</v>
+        <v>0.2378179054509539</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3007607542114156</v>
+        <v>0.3005430412277507</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>136</v>
@@ -3050,19 +3050,19 @@
         <v>138193</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>118967</v>
+        <v>117362</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>164376</v>
+        <v>159143</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1389349189414231</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1196057697846635</v>
+        <v>0.1179916799680032</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1652581176305329</v>
+        <v>0.1599970763905556</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>332</v>
@@ -3071,19 +3071,19 @@
         <v>340976</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>308357</v>
+        <v>309995</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>372652</v>
+        <v>373812</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1949538674494954</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1763041843087208</v>
+        <v>0.1772407150852058</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2130646391526576</v>
+        <v>0.2137280087673153</v>
       </c>
     </row>
     <row r="6">
@@ -3175,19 +3175,19 @@
         <v>992739</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>947403</v>
+        <v>947378</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>1039161</v>
+        <v>1042529</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.4781095127234141</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.4562753061967618</v>
+        <v>0.4562629675191222</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.5004661977291728</v>
+        <v>0.5020882768078448</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>1059</v>
@@ -3196,19 +3196,19 @@
         <v>1131489</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1085158</v>
+        <v>1085894</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>1175848</v>
+        <v>1174268</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.5690733820002363</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.5457716566294518</v>
+        <v>0.5461421627541316</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.5913837876591205</v>
+        <v>0.5905887789333271</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1994</v>
@@ -3217,19 +3217,19 @@
         <v>2124228</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>2057120</v>
+        <v>2057463</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>2184378</v>
+        <v>2188862</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.5226058182993207</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.5060956771838596</v>
+        <v>0.5061801537992116</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.5374039825916341</v>
+        <v>0.5385070814449974</v>
       </c>
     </row>
     <row r="8">
@@ -3246,19 +3246,19 @@
         <v>1083646</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1037224</v>
+        <v>1033856</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1128982</v>
+        <v>1129007</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.5218904872765859</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4995338022708272</v>
+        <v>0.4979117231921551</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.5437246938032384</v>
+        <v>0.5437370324808775</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>849</v>
@@ -3267,19 +3267,19 @@
         <v>856811</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>812452</v>
+        <v>814032</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>903142</v>
+        <v>902406</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.4309266179997637</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.4086162123408796</v>
+        <v>0.4094112210666729</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.4542283433705481</v>
+        <v>0.4538578372458684</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1866</v>
@@ -3288,19 +3288,19 @@
         <v>1940457</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1880307</v>
+        <v>1875823</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2007565</v>
+        <v>2007222</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.4773941817006793</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.4625960174083658</v>
+        <v>0.4614929185550025</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.4939043228161402</v>
+        <v>0.4938198462007884</v>
       </c>
     </row>
     <row r="9">
@@ -3392,19 +3392,19 @@
         <v>222061</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>199438</v>
+        <v>200084</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>246669</v>
+        <v>249254</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4060469630187677</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3646798058646107</v>
+        <v>0.3658605823992443</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4510433892397345</v>
+        <v>0.4557695347024877</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>247</v>
@@ -3413,19 +3413,19 @@
         <v>264962</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>241129</v>
+        <v>238700</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>289739</v>
+        <v>289544</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.482504269641348</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4391022184585478</v>
+        <v>0.4346789883588032</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5276240338929264</v>
+        <v>0.5272674855055587</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>446</v>
@@ -3434,19 +3434,19 @@
         <v>487024</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>453373</v>
+        <v>453280</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>520016</v>
+        <v>521184</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.4443542392955629</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4136514461118708</v>
+        <v>0.4135663262627402</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4744553611587492</v>
+        <v>0.4755209980550823</v>
       </c>
     </row>
     <row r="11">
@@ -3463,19 +3463,19 @@
         <v>324825</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>300217</v>
+        <v>297632</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>347448</v>
+        <v>346802</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.5939530369812324</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5489566107602656</v>
+        <v>0.5442304652975124</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.6353201941353893</v>
+        <v>0.6341394176007557</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>279</v>
@@ -3484,19 +3484,19 @@
         <v>284178</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>259401</v>
+        <v>259596</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>308011</v>
+        <v>310440</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.517495730358652</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.4723759661070734</v>
+        <v>0.4727325144944414</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.5608977815414522</v>
+        <v>0.5653210116411969</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>581</v>
@@ -3505,19 +3505,19 @@
         <v>609003</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>576011</v>
+        <v>574843</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>642654</v>
+        <v>642747</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.5556457607044371</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.5255446388412506</v>
+        <v>0.5244790019449175</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.5863485538881293</v>
+        <v>0.5864336737372593</v>
       </c>
     </row>
     <row r="12">
@@ -3609,19 +3609,19 @@
         <v>1766365</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1710541</v>
+        <v>1701709</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>1831531</v>
+        <v>1821641</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.5229617601437573</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.5064340964777957</v>
+        <v>0.5038193489338837</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.5422550892910034</v>
+        <v>0.5393270050221949</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>2062</v>
@@ -3630,19 +3630,19 @@
         <v>2252918</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>2194447</v>
+        <v>2199280</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>2311119</v>
+        <v>2313190</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.637840937760389</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.6212866707412201</v>
+        <v>0.6226550908371964</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.6543185842826253</v>
+        <v>0.6549049789113488</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>3762</v>
@@ -3651,19 +3651,19 @@
         <v>4019283</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>3936181</v>
+        <v>3935619</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>4098541</v>
+        <v>4104299</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.5816855430293388</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.5696587062929892</v>
+        <v>0.5695773640302393</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.5931560254135831</v>
+        <v>0.5939893002401859</v>
       </c>
     </row>
     <row r="14">
@@ -3680,19 +3680,19 @@
         <v>1611253</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1546087</v>
+        <v>1555977</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1667077</v>
+        <v>1675909</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.4770382398562427</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4577449107089965</v>
+        <v>0.4606729949778052</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4935659035222043</v>
+        <v>0.4961806510661163</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1264</v>
@@ -3701,19 +3701,19 @@
         <v>1279182</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1220981</v>
+        <v>1218910</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1337653</v>
+        <v>1332820</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.362159062239611</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3456814157173746</v>
+        <v>0.3450950210886512</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3787133292587798</v>
+        <v>0.3773449091628035</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2779</v>
@@ -3722,19 +3722,19 @@
         <v>2890435</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>2811177</v>
+        <v>2805419</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>2973537</v>
+        <v>2974099</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4183144569706612</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4068439745864168</v>
+        <v>0.4060106997598142</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4303412937070109</v>
+        <v>0.4304226359697608</v>
       </c>
     </row>
     <row r="15">
@@ -4065,19 +4065,19 @@
         <v>340822</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>316425</v>
+        <v>318663</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>362818</v>
+        <v>363538</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.5891174120612802</v>
+        <v>0.5891174120612801</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.5469473731052459</v>
+        <v>0.5508159518529244</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.6271393063648265</v>
+        <v>0.6283830861725225</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1043</v>
@@ -4086,19 +4086,19 @@
         <v>575451</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>553609</v>
+        <v>556205</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>594719</v>
+        <v>597127</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.7000301590675936</v>
+        <v>0.7000301590675937</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.6734585319407712</v>
+        <v>0.6766177361725093</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.7234693378589024</v>
+        <v>0.7263983532750206</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1487</v>
@@ -4107,19 +4107,19 @@
         <v>916273</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>881682</v>
+        <v>883404</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>947108</v>
+        <v>950053</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.6542156612503451</v>
+        <v>0.654215661250345</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.6295178489252314</v>
+        <v>0.6307473035248852</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.6762315213078133</v>
+        <v>0.6783342471005586</v>
       </c>
     </row>
     <row r="5">
@@ -4136,19 +4136,19 @@
         <v>237707</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>215711</v>
+        <v>214991</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>262104</v>
+        <v>259866</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.4108825879387198</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3728606936351735</v>
+        <v>0.3716169138274774</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4530526268947542</v>
+        <v>0.4491840481470753</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>384</v>
@@ -4157,19 +4157,19 @@
         <v>246587</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>227319</v>
+        <v>224911</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>268429</v>
+        <v>265833</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2999698409324063</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2765306621410975</v>
+        <v>0.2736016467249794</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3265414680592287</v>
+        <v>0.3233822638274906</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>631</v>
@@ -4178,19 +4178,19 @@
         <v>484294</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>453459</v>
+        <v>450514</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>518885</v>
+        <v>517163</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.345784338749655</v>
+        <v>0.3457843387496549</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3237684786921868</v>
+        <v>0.3216657528994414</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3704821510747687</v>
+        <v>0.3692526964751149</v>
       </c>
     </row>
     <row r="6">
@@ -4282,19 +4282,19 @@
         <v>822434</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>771205</v>
+        <v>774047</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>875729</v>
+        <v>876947</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3687108442323637</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3457438875222294</v>
+        <v>0.3470183389627912</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3926039102977422</v>
+        <v>0.3931499396821838</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>1292</v>
@@ -4303,19 +4303,19 @@
         <v>892405</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>851367</v>
+        <v>851638</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>934800</v>
+        <v>933633</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.4109827547570785</v>
+        <v>0.4109827547570784</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3920835798143618</v>
+        <v>0.3922084568312144</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4305073080015194</v>
+        <v>0.4299698461995531</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>2102</v>
@@ -4324,19 +4324,19 @@
         <v>1714839</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1646383</v>
+        <v>1648114</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1778517</v>
+        <v>1783709</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3895626751184176</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3740115154625703</v>
+        <v>0.3744046367924385</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4040285139690344</v>
+        <v>0.4052080827213526</v>
       </c>
     </row>
     <row r="8">
@@ -4353,19 +4353,19 @@
         <v>1408132</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1354837</v>
+        <v>1353619</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1459361</v>
+        <v>1456519</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.6312891557676363</v>
+        <v>0.6312891557676364</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6073960897022578</v>
+        <v>0.6068500603178161</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6542561124777707</v>
+        <v>0.6529816610372088</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1629</v>
@@ -4374,19 +4374,19 @@
         <v>1278987</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1236592</v>
+        <v>1237759</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1320025</v>
+        <v>1319754</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.5890172452429216</v>
+        <v>0.5890172452429214</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5694926919984806</v>
+        <v>0.5700301538004472</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6079164201856384</v>
+        <v>0.6077915431687858</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2811</v>
@@ -4395,19 +4395,19 @@
         <v>2687120</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2623442</v>
+        <v>2618250</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2755576</v>
+        <v>2753845</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.6104373248815824</v>
+        <v>0.6104373248815823</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.5959714860309656</v>
+        <v>0.5947919172786476</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6259884845374298</v>
+        <v>0.6255953632075618</v>
       </c>
     </row>
     <row r="9">
@@ -4499,19 +4499,19 @@
         <v>232604</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>208612</v>
+        <v>205549</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>262466</v>
+        <v>256674</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3268808611848237</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2931639001476219</v>
+        <v>0.2888594033088013</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3688460867235432</v>
+        <v>0.3607062433593307</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>360</v>
@@ -4520,19 +4520,19 @@
         <v>257703</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>234973</v>
+        <v>233776</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>280150</v>
+        <v>280054</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3506752008654581</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3197448258197539</v>
+        <v>0.3181151939430921</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.381220909330343</v>
+        <v>0.3810902204537618</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>597</v>
@@ -4541,19 +4541,19 @@
         <v>490307</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>455821</v>
+        <v>452849</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>525030</v>
+        <v>527712</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.3389695933438329</v>
+        <v>0.3389695933438328</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3151275239360068</v>
+        <v>0.313073320706042</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3629746369999202</v>
+        <v>0.3648290533714564</v>
       </c>
     </row>
     <row r="11">
@@ -4570,19 +4570,19 @@
         <v>478983</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>449121</v>
+        <v>454913</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>502975</v>
+        <v>506038</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.6731191388151764</v>
+        <v>0.6731191388151762</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6311539132764569</v>
+        <v>0.6392937566406695</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7068360998523781</v>
+        <v>0.7111405966911987</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>644</v>
@@ -4591,19 +4591,19 @@
         <v>477174</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>454727</v>
+        <v>454823</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>499904</v>
+        <v>501101</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6493247991345418</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6187790906696571</v>
+        <v>0.6189097795462383</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6802551741802464</v>
+        <v>0.6818848060569078</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1088</v>
@@ -4612,19 +4612,19 @@
         <v>956157</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>921434</v>
+        <v>918752</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>990643</v>
+        <v>993615</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.6610304066561672</v>
+        <v>0.6610304066561671</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6370253630000797</v>
+        <v>0.6351709466285436</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.684872476063993</v>
+        <v>0.6869266792939575</v>
       </c>
     </row>
     <row r="12">
@@ -4716,19 +4716,19 @@
         <v>1395860</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1330929</v>
+        <v>1327313</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>1466429</v>
+        <v>1461336</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.3964742113919594</v>
+        <v>0.3964742113919593</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.378031467681277</v>
+        <v>0.3770043522805016</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4165182821357748</v>
+        <v>0.4150717186148934</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>2695</v>
@@ -4737,19 +4737,19 @@
         <v>1725559</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1669896</v>
+        <v>1674624</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>1780506</v>
+        <v>1780357</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.4628264590774568</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.4478965739705947</v>
+        <v>0.4491647496838843</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4775642564666271</v>
+        <v>0.4775241259388014</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>4186</v>
@@ -4758,19 +4758,19 @@
         <v>3121419</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>3038865</v>
+        <v>3038707</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>3200469</v>
+        <v>3210024</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.4306005607692214</v>
+        <v>0.4306005607692215</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.4192122572618137</v>
+        <v>0.4191903551834406</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4415054581043861</v>
+        <v>0.4428236179854369</v>
       </c>
     </row>
     <row r="14">
@@ -4787,19 +4787,19 @@
         <v>2124823</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2054254</v>
+        <v>2059347</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>2189754</v>
+        <v>2193370</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6035257886080406</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5834817178642251</v>
+        <v>0.5849282813851068</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.621968532318723</v>
+        <v>0.6229956477194983</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>2657</v>
@@ -4808,19 +4808,19 @@
         <v>2002748</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1947801</v>
+        <v>1947950</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>2058411</v>
+        <v>2053683</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.5371735409225431</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5224357435333731</v>
+        <v>0.5224758740611986</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.5521034260294053</v>
+        <v>0.5508352503161154</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>4530</v>
@@ -4829,19 +4829,19 @@
         <v>4127571</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>4048521</v>
+        <v>4038966</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>4210125</v>
+        <v>4210283</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.5693994392307785</v>
+        <v>0.5693994392307786</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5584945418956141</v>
+        <v>0.5571763820145629</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5807877427381865</v>
+        <v>0.5808096448165596</v>
       </c>
     </row>
     <row r="15">
